--- a/work-in-progress/Peppol Code Lists - Document types v8.3.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E332F360-767C-45BF-9F07-B0BB059D0EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6100C900-C1FF-4C02-B528-23042F262BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="1110" windowWidth="26340" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -27,20 +27,11 @@
     <definedName name="_ftnref4" localSheetId="0">'Document Type'!$A$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="526">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1615,6 +1606,39 @@
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:fdc:peppol:jp:billing:3.0::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderChange-2::OrderChange##urn:fdc:peppol.eu:poacc:trns:order_change:3::2.3</t>
+  </si>
+  <si>
+    <t>TICC-219</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:advanced_ordering:3</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderCancellation-2::OrderCancellation##urn:fdc:peppol.eu:poacc:trns:order_cancellation:3::2.3</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderResponse-2::OrderResponse##urn:fdc:peppol.eu:poacc:trns:order_response_advanced:3::2.3</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Order-2::Order##urn:fdc:peppol.eu:poacc:trns:order:3::2.3</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>Peppol Order Change</t>
+  </si>
+  <si>
+    <t>Peppol Order Cancellation</t>
+  </si>
+  <si>
+    <t>Peppol Order Response Advanced</t>
+  </si>
+  <si>
+    <t>Peppol Order Advanced</t>
   </si>
 </sst>
 </file>
@@ -1717,68 +1741,61 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2197,11 +2214,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L187"/>
+  <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2209,10 +2226,10 @@
     <col min="1" max="1" width="47.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="103.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="5"/>
@@ -2231,16 +2248,16 @@
       <c r="C1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>431</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>430</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2269,7 +2286,7 @@
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2302,7 +2319,7 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -2335,7 +2352,7 @@
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -2368,7 +2385,7 @@
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -2401,7 +2418,7 @@
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2434,7 +2451,7 @@
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -2467,7 +2484,7 @@
       <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2500,7 +2517,7 @@
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -2533,7 +2550,7 @@
       <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -2569,7 +2586,7 @@
       <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -2602,7 +2619,7 @@
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -2635,7 +2652,7 @@
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2668,7 +2685,7 @@
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2701,7 +2718,7 @@
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -2734,7 +2751,7 @@
       <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -2767,7 +2784,7 @@
       <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2800,7 +2817,7 @@
       <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -2833,7 +2850,7 @@
       <c r="C19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -2866,7 +2883,7 @@
       <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2899,7 +2916,7 @@
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2932,7 +2949,7 @@
       <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -2965,7 +2982,7 @@
       <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2998,7 +3015,7 @@
       <c r="C24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -3031,7 +3048,7 @@
       <c r="C25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -3061,7 +3078,7 @@
       <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3088,7 +3105,7 @@
       <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -3121,7 +3138,7 @@
       <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -3157,7 +3174,7 @@
       <c r="C29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="19">
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3190,7 +3207,7 @@
       <c r="C30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -3223,7 +3240,7 @@
       <c r="C31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -3256,7 +3273,7 @@
       <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="18">
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -3286,7 +3303,7 @@
       <c r="C33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="18">
         <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -3316,7 +3333,7 @@
       <c r="C34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="19">
         <v>3</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -3343,7 +3360,7 @@
       <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="19">
         <v>3</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -3376,7 +3393,7 @@
       <c r="C36" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -3406,7 +3423,7 @@
       <c r="C37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="18">
         <v>3</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -3436,7 +3453,7 @@
       <c r="C38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="18">
         <v>3</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -3466,7 +3483,7 @@
       <c r="C39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="18">
         <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -3496,7 +3513,7 @@
       <c r="C40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="18">
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -3526,7 +3543,7 @@
       <c r="C41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="18">
         <v>3</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -3556,7 +3573,7 @@
       <c r="C42" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="18">
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -3586,7 +3603,7 @@
       <c r="C43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="18">
         <v>3</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -3616,7 +3633,7 @@
       <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="18">
         <v>3</v>
       </c>
       <c r="E44" s="5" t="s">
@@ -3649,7 +3666,7 @@
       <c r="C45" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="18">
         <v>3</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -3682,7 +3699,7 @@
       <c r="C46" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="18">
         <v>3</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -3715,7 +3732,7 @@
       <c r="C47" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="18">
         <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -3745,7 +3762,7 @@
       <c r="C48" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="18">
         <v>3</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -3775,7 +3792,7 @@
       <c r="C49" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="18">
         <v>3</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -3805,7 +3822,7 @@
       <c r="C50" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="18">
         <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
@@ -3835,7 +3852,7 @@
       <c r="C51" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="18">
         <v>4</v>
       </c>
       <c r="E51" s="5" t="s">
@@ -3868,7 +3885,7 @@
       <c r="C52" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="18">
         <v>4</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -3898,7 +3915,7 @@
       <c r="C53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="18">
         <v>4</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -3928,7 +3945,7 @@
       <c r="C54" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="18">
         <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -3958,7 +3975,7 @@
       <c r="C55" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="18">
         <v>4</v>
       </c>
       <c r="E55" s="5" t="s">
@@ -3988,7 +4005,7 @@
       <c r="C56" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="18">
         <v>4</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -4018,7 +4035,7 @@
       <c r="C57" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="18">
         <v>4</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -4048,7 +4065,7 @@
       <c r="C58" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="18">
         <v>4</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -4078,7 +4095,7 @@
       <c r="C59" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="18">
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -4108,7 +4125,7 @@
       <c r="C60" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="18">
         <v>4</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -4138,7 +4155,7 @@
       <c r="C61" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="18">
         <v>4</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -4165,7 +4182,7 @@
       <c r="C62" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="18">
         <v>4</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -4192,7 +4209,7 @@
       <c r="C63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="18">
         <v>4</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -4222,7 +4239,7 @@
       <c r="C64" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="18">
         <v>4</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -4258,7 +4275,7 @@
       <c r="C65" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="18">
         <v>6</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -4291,7 +4308,7 @@
       <c r="C66" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="18">
         <v>5</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -4321,7 +4338,7 @@
       <c r="C67" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="18">
         <v>5</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -4351,7 +4368,7 @@
       <c r="C68" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="18">
         <v>5</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -4381,7 +4398,7 @@
       <c r="C69" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="18">
         <v>6</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -4411,7 +4428,7 @@
       <c r="C70" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="18">
         <v>6</v>
       </c>
       <c r="E70" s="5" t="s">
@@ -4441,7 +4458,7 @@
       <c r="C71" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="18">
         <v>6</v>
       </c>
       <c r="E71" s="5" t="s">
@@ -4462,7 +4479,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="45">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -4471,7 +4488,7 @@
       <c r="C72" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="18">
         <v>6</v>
       </c>
       <c r="E72" s="5" t="s">
@@ -4495,7 +4512,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="45">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -4504,7 +4521,7 @@
       <c r="C73" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D73" s="18">
         <v>6</v>
       </c>
       <c r="E73" s="5" t="s">
@@ -4537,7 +4554,7 @@
       <c r="C74" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="18">
         <v>6</v>
       </c>
       <c r="E74" s="5" t="s">
@@ -4567,7 +4584,7 @@
       <c r="C75" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="18">
         <v>6</v>
       </c>
       <c r="E75" s="5" t="s">
@@ -4597,7 +4614,7 @@
       <c r="C76" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="18">
         <v>6</v>
       </c>
       <c r="E76" s="5" t="s">
@@ -4627,7 +4644,7 @@
       <c r="C77" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D77" s="18">
         <v>6</v>
       </c>
       <c r="E77" s="5" t="s">
@@ -4657,16 +4674,16 @@
       <c r="C78" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="18">
         <v>7</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G78" s="19"/>
+      <c r="G78" s="16"/>
       <c r="H78" s="5" t="s">
         <v>220</v>
       </c>
@@ -4691,16 +4708,16 @@
       <c r="C79" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D79" s="18">
         <v>7</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G79" s="19"/>
+      <c r="G79" s="16"/>
       <c r="H79" s="5" t="s">
         <v>220</v>
       </c>
@@ -4725,16 +4742,16 @@
       <c r="C80" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="18">
         <v>7</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G80" s="19"/>
+      <c r="G80" s="16"/>
       <c r="H80" s="5" t="s">
         <v>220</v>
       </c>
@@ -4759,7 +4776,7 @@
       <c r="C81" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D81" s="18">
         <v>7</v>
       </c>
       <c r="E81" s="5" t="s">
@@ -4789,7 +4806,7 @@
       <c r="C82" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D82" s="18">
         <v>7</v>
       </c>
       <c r="E82" s="5" t="s">
@@ -4819,16 +4836,16 @@
       <c r="C83" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="18">
         <v>7</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="G83" s="19"/>
+      <c r="G83" s="16"/>
       <c r="H83" s="5" t="s">
         <v>214</v>
       </c>
@@ -4853,7 +4870,7 @@
       <c r="C84" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="19" t="s">
         <v>247</v>
       </c>
       <c r="E84" s="5" t="s">
@@ -4883,16 +4900,16 @@
       <c r="C85" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="18">
         <v>7</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G85" s="19"/>
+      <c r="G85" s="16"/>
       <c r="H85" s="5" t="s">
         <v>210</v>
       </c>
@@ -4917,16 +4934,16 @@
       <c r="C86" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="18">
         <v>7</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G86" s="19"/>
+      <c r="G86" s="16"/>
       <c r="H86" s="5" t="s">
         <v>210</v>
       </c>
@@ -4951,16 +4968,16 @@
       <c r="C87" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D87" s="18">
         <v>7</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G87" s="19"/>
+      <c r="G87" s="16"/>
       <c r="H87" s="5" t="s">
         <v>210</v>
       </c>
@@ -4985,7 +5002,7 @@
       <c r="C88" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D88" s="18">
         <v>7</v>
       </c>
       <c r="E88" s="5" t="s">
@@ -5015,16 +5032,16 @@
       <c r="C89" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="18">
         <v>7</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="G89" s="19"/>
+      <c r="G89" s="16"/>
       <c r="H89" s="5" t="s">
         <v>212</v>
       </c>
@@ -5049,16 +5066,16 @@
       <c r="C90" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="18">
         <v>7</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F90" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="G90" s="19"/>
+      <c r="G90" s="16"/>
       <c r="H90" s="5" t="s">
         <v>212</v>
       </c>
@@ -5083,16 +5100,16 @@
       <c r="C91" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D91" s="21">
+      <c r="D91" s="18">
         <v>7</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="G91" s="19"/>
+      <c r="G91" s="16"/>
       <c r="H91" s="5" t="s">
         <v>212</v>
       </c>
@@ -5117,16 +5134,16 @@
       <c r="C92" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D92" s="21">
+      <c r="D92" s="18">
         <v>7</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F92" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="G92" s="19"/>
+      <c r="G92" s="16"/>
       <c r="H92" s="5" t="s">
         <v>212</v>
       </c>
@@ -5151,7 +5168,7 @@
       <c r="C93" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D93" s="21">
+      <c r="D93" s="18">
         <v>7</v>
       </c>
       <c r="E93" s="5" t="s">
@@ -5181,7 +5198,7 @@
       <c r="C94" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D94" s="21">
+      <c r="D94" s="18">
         <v>7</v>
       </c>
       <c r="E94" s="5" t="s">
@@ -5211,7 +5228,7 @@
       <c r="C95" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D95" s="21">
+      <c r="D95" s="18">
         <v>7</v>
       </c>
       <c r="E95" s="5" t="s">
@@ -5241,7 +5258,7 @@
       <c r="C96" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="19" t="s">
         <v>207</v>
       </c>
       <c r="E96" s="5" t="s">
@@ -5271,7 +5288,7 @@
       <c r="C97" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="19" t="s">
         <v>207</v>
       </c>
       <c r="E97" s="5" t="s">
@@ -5301,16 +5318,16 @@
       <c r="C98" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D98" s="19" t="s">
         <v>207</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F98" s="10" t="s">
+      <c r="F98" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="G98" s="19"/>
+      <c r="G98" s="16"/>
       <c r="H98" s="5" t="s">
         <v>370</v>
       </c>
@@ -5335,7 +5352,7 @@
       <c r="C99" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="D99" s="19" t="s">
         <v>247</v>
       </c>
       <c r="E99" s="5" t="s">
@@ -5365,7 +5382,7 @@
       <c r="C100" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D100" s="22" t="s">
+      <c r="D100" s="19" t="s">
         <v>207</v>
       </c>
       <c r="E100" s="5" t="s">
@@ -5395,7 +5412,7 @@
       <c r="C101" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="19" t="s">
         <v>207</v>
       </c>
       <c r="E101" s="5" t="s">
@@ -5416,16 +5433,16 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="45">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B102" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" s="11" t="s">
+      <c r="B102" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D102" s="22" t="s">
+      <c r="D102" s="19" t="s">
         <v>230</v>
       </c>
       <c r="E102" s="5" t="s">
@@ -5441,7 +5458,7 @@
       <c r="K102" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="L102" s="13" t="s">
+      <c r="L102" s="12" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5449,13 +5466,13 @@
       <c r="A103" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D103" s="22" t="s">
+      <c r="D103" s="19" t="s">
         <v>231</v>
       </c>
       <c r="E103" s="5" t="s">
@@ -5482,7 +5499,7 @@
       <c r="C104" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D104" s="22" t="s">
+      <c r="D104" s="19" t="s">
         <v>231</v>
       </c>
       <c r="E104" s="5" t="s">
@@ -5512,7 +5529,7 @@
       <c r="C105" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D105" s="22" t="s">
+      <c r="D105" s="19" t="s">
         <v>231</v>
       </c>
       <c r="E105" s="5" t="s">
@@ -5542,7 +5559,7 @@
       <c r="C106" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D106" s="22" t="s">
+      <c r="D106" s="19" t="s">
         <v>231</v>
       </c>
       <c r="E106" s="5" t="s">
@@ -5572,7 +5589,7 @@
       <c r="C107" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="D107" s="19" t="s">
         <v>231</v>
       </c>
       <c r="E107" s="5" t="s">
@@ -5596,13 +5613,13 @@
       <c r="A108" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" t="s">
         <v>56</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D108" s="22" t="s">
+      <c r="D108" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E108" s="5" t="s">
@@ -5615,7 +5632,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K108" s="14" t="s">
+      <c r="K108" t="s">
         <v>371</v>
       </c>
       <c r="L108" s="5" t="s">
@@ -5626,13 +5643,13 @@
       <c r="A109" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D109" s="22" t="s">
+      <c r="D109" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E109" s="5" t="s">
@@ -5645,7 +5662,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K109" s="14" t="s">
+      <c r="K109" t="s">
         <v>371</v>
       </c>
       <c r="L109" s="5" t="s">
@@ -5656,13 +5673,13 @@
       <c r="A110" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" t="s">
         <v>56</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D110" s="22" t="s">
+      <c r="D110" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E110" s="5" t="s">
@@ -5675,7 +5692,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K110" s="14" t="s">
+      <c r="K110" t="s">
         <v>371</v>
       </c>
       <c r="L110" s="5" t="s">
@@ -5686,13 +5703,13 @@
       <c r="A111" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" t="s">
         <v>56</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D111" s="22" t="s">
+      <c r="D111" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E111" s="5" t="s">
@@ -5705,7 +5722,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K111" s="14" t="s">
+      <c r="K111" t="s">
         <v>371</v>
       </c>
       <c r="L111" s="5" t="s">
@@ -5716,13 +5733,13 @@
       <c r="A112" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" t="s">
         <v>56</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E112" s="5" t="s">
@@ -5735,7 +5752,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K112" s="14" t="s">
+      <c r="K112" t="s">
         <v>371</v>
       </c>
       <c r="L112" s="5" t="s">
@@ -5746,13 +5763,13 @@
       <c r="A113" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" t="s">
         <v>56</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D113" s="22" t="s">
+      <c r="D113" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E113" s="5" t="s">
@@ -5765,7 +5782,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K113" s="14" t="s">
+      <c r="K113" t="s">
         <v>371</v>
       </c>
       <c r="L113" s="5" t="s">
@@ -5776,13 +5793,13 @@
       <c r="A114" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" t="s">
         <v>56</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="D114" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E114" s="5" t="s">
@@ -5795,7 +5812,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K114" s="14" t="s">
+      <c r="K114" t="s">
         <v>371</v>
       </c>
       <c r="L114" s="5" t="s">
@@ -5806,13 +5823,13 @@
       <c r="A115" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" t="s">
         <v>56</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D115" s="22" t="s">
+      <c r="D115" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E115" s="5" t="s">
@@ -5825,7 +5842,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K115" s="14" t="s">
+      <c r="K115" t="s">
         <v>371</v>
       </c>
       <c r="L115" s="5" t="s">
@@ -5836,13 +5853,13 @@
       <c r="A116" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" t="s">
         <v>56</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D116" s="22" t="s">
+      <c r="D116" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E116" s="5" t="s">
@@ -5855,7 +5872,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K116" s="14" t="s">
+      <c r="K116" t="s">
         <v>371</v>
       </c>
       <c r="L116" s="5" t="s">
@@ -5866,13 +5883,13 @@
       <c r="A117" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" t="s">
         <v>56</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D117" s="22" t="s">
+      <c r="D117" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E117" s="5" t="s">
@@ -5885,7 +5902,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K117" s="14" t="s">
+      <c r="K117" t="s">
         <v>371</v>
       </c>
       <c r="L117" s="5" t="s">
@@ -5896,13 +5913,13 @@
       <c r="A118" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" t="s">
         <v>56</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D118" s="22" t="s">
+      <c r="D118" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E118" s="5" t="s">
@@ -5915,7 +5932,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K118" s="14" t="s">
+      <c r="K118" t="s">
         <v>371</v>
       </c>
       <c r="L118" s="5" t="s">
@@ -5926,13 +5943,13 @@
       <c r="A119" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" t="s">
         <v>56</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D119" s="22" t="s">
+      <c r="D119" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E119" s="5" t="s">
@@ -5945,7 +5962,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K119" s="14" t="s">
+      <c r="K119" t="s">
         <v>371</v>
       </c>
       <c r="L119" s="5" t="s">
@@ -5956,13 +5973,13 @@
       <c r="A120" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" t="s">
         <v>56</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D120" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E120" s="5" t="s">
@@ -5975,7 +5992,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K120" s="14" t="s">
+      <c r="K120" t="s">
         <v>371</v>
       </c>
       <c r="L120" s="5" t="s">
@@ -5986,13 +6003,13 @@
       <c r="A121" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" t="s">
         <v>56</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D121" s="22" t="s">
+      <c r="D121" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E121" s="5" t="s">
@@ -6005,7 +6022,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K121" s="14" t="s">
+      <c r="K121" t="s">
         <v>371</v>
       </c>
       <c r="L121" s="5" t="s">
@@ -6016,13 +6033,13 @@
       <c r="A122" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" t="s">
         <v>56</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E122" s="5" t="s">
@@ -6035,7 +6052,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K122" s="14" t="s">
+      <c r="K122" t="s">
         <v>371</v>
       </c>
       <c r="L122" s="5" t="s">
@@ -6046,13 +6063,13 @@
       <c r="A123" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" t="s">
         <v>56</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D123" s="22" t="s">
+      <c r="D123" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E123" s="5" t="s">
@@ -6065,7 +6082,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K123" s="14" t="s">
+      <c r="K123" t="s">
         <v>371</v>
       </c>
       <c r="L123" s="5" t="s">
@@ -6076,13 +6093,13 @@
       <c r="A124" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" t="s">
         <v>56</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D124" s="22" t="s">
+      <c r="D124" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E124" s="5" t="s">
@@ -6095,7 +6112,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K124" s="14" t="s">
+      <c r="K124" t="s">
         <v>371</v>
       </c>
       <c r="L124" s="5" t="s">
@@ -6106,13 +6123,13 @@
       <c r="A125" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" t="s">
         <v>56</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="D125" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E125" s="5" t="s">
@@ -6125,7 +6142,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K125" s="14" t="s">
+      <c r="K125" t="s">
         <v>371</v>
       </c>
       <c r="L125" s="5" t="s">
@@ -6136,13 +6153,13 @@
       <c r="A126" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" t="s">
         <v>56</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D126" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E126" s="5" t="s">
@@ -6155,7 +6172,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K126" s="14" t="s">
+      <c r="K126" t="s">
         <v>371</v>
       </c>
       <c r="L126" s="5" t="s">
@@ -6166,13 +6183,13 @@
       <c r="A127" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" t="s">
         <v>56</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D127" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E127" s="5" t="s">
@@ -6185,7 +6202,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K127" s="14" t="s">
+      <c r="K127" t="s">
         <v>371</v>
       </c>
       <c r="L127" s="5" t="s">
@@ -6196,13 +6213,13 @@
       <c r="A128" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" t="s">
         <v>56</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="D128" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E128" s="5" t="s">
@@ -6215,7 +6232,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K128" s="14" t="s">
+      <c r="K128" t="s">
         <v>371</v>
       </c>
       <c r="L128" s="5" t="s">
@@ -6226,13 +6243,13 @@
       <c r="A129" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" t="s">
         <v>56</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="D129" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E129" s="5" t="s">
@@ -6245,7 +6262,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K129" s="14" t="s">
+      <c r="K129" t="s">
         <v>371</v>
       </c>
       <c r="L129" s="5" t="s">
@@ -6253,7 +6270,7 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="5" t="s">
         <v>496</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -6262,7 +6279,7 @@
       <c r="C130" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="D130" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E130" s="5" t="s">
@@ -6285,7 +6302,7 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="30">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="5" t="s">
         <v>497</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -6294,7 +6311,7 @@
       <c r="C131" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D131" s="22" t="s">
+      <c r="D131" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E131" s="5" t="s">
@@ -6317,7 +6334,7 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="15" t="s">
+      <c r="A132" s="5" t="s">
         <v>498</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -6326,7 +6343,7 @@
       <c r="C132" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D132" s="22" t="s">
+      <c r="D132" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E132" s="5" t="s">
@@ -6349,7 +6366,7 @@
       </c>
     </row>
     <row r="133" spans="1:12" ht="30">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="5" t="s">
         <v>499</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -6358,7 +6375,7 @@
       <c r="C133" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="D133" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E133" s="5" t="s">
@@ -6390,7 +6407,7 @@
       <c r="C134" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D134" s="22" t="s">
+      <c r="D134" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E134" s="5" t="s">
@@ -6419,7 +6436,7 @@
       <c r="C135" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D135" s="22" t="s">
+      <c r="D135" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E135" s="5" t="s">
@@ -6448,7 +6465,7 @@
       <c r="C136" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D136" s="22" t="s">
+      <c r="D136" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E136" s="5" t="s">
@@ -6477,7 +6494,7 @@
       <c r="C137" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D137" s="22" t="s">
+      <c r="D137" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E137" s="5" t="s">
@@ -6506,7 +6523,7 @@
       <c r="C138" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D138" s="22" t="s">
+      <c r="D138" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E138" s="5" t="s">
@@ -6535,7 +6552,7 @@
       <c r="C139" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D139" s="22" t="s">
+      <c r="D139" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E139" s="5" t="s">
@@ -6564,7 +6581,7 @@
       <c r="C140" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D140" s="22" t="s">
+      <c r="D140" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E140" s="5" t="s">
@@ -6593,7 +6610,7 @@
       <c r="C141" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D141" s="22" t="s">
+      <c r="D141" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E141" s="5" t="s">
@@ -6622,7 +6639,7 @@
       <c r="C142" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D142" s="22" t="s">
+      <c r="D142" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E142" s="5" t="s">
@@ -6651,7 +6668,7 @@
       <c r="C143" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D143" s="22" t="s">
+      <c r="D143" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E143" s="5" t="s">
@@ -6680,7 +6697,7 @@
       <c r="C144" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D144" s="22" t="s">
+      <c r="D144" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E144" s="5" t="s">
@@ -6709,7 +6726,7 @@
       <c r="C145" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D145" s="22" t="s">
+      <c r="D145" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E145" s="5" t="s">
@@ -6738,7 +6755,7 @@
       <c r="C146" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D146" s="22" t="s">
+      <c r="D146" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E146" s="5" t="s">
@@ -6767,7 +6784,7 @@
       <c r="C147" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D147" s="22" t="s">
+      <c r="D147" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E147" s="5" t="s">
@@ -6796,7 +6813,7 @@
       <c r="C148" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D148" s="22" t="s">
+      <c r="D148" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E148" s="5" t="s">
@@ -6825,7 +6842,7 @@
       <c r="C149" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D149" s="22" t="s">
+      <c r="D149" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E149" s="5" t="s">
@@ -6854,7 +6871,7 @@
       <c r="C150" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D150" s="22" t="s">
+      <c r="D150" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E150" s="5" t="s">
@@ -6883,7 +6900,7 @@
       <c r="C151" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D151" s="22" t="s">
+      <c r="D151" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E151" s="5" t="s">
@@ -6912,7 +6929,7 @@
       <c r="C152" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D152" s="22" t="s">
+      <c r="D152" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E152" s="5" t="s">
@@ -6941,7 +6958,7 @@
       <c r="C153" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D153" s="22" t="s">
+      <c r="D153" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E153" s="5" t="s">
@@ -6970,7 +6987,7 @@
       <c r="C154" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="D154" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E154" s="5" t="s">
@@ -6999,7 +7016,7 @@
       <c r="C155" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D155" s="22" t="s">
+      <c r="D155" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E155" s="5" t="s">
@@ -7028,7 +7045,7 @@
       <c r="C156" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D156" s="22" t="s">
+      <c r="D156" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E156" s="5" t="s">
@@ -7057,7 +7074,7 @@
       <c r="C157" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D157" s="22" t="s">
+      <c r="D157" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E157" s="5" t="s">
@@ -7086,7 +7103,7 @@
       <c r="C158" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D158" s="22" t="s">
+      <c r="D158" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E158" s="5" t="s">
@@ -7115,7 +7132,7 @@
       <c r="C159" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D159" s="22" t="s">
+      <c r="D159" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E159" s="5" t="s">
@@ -7144,7 +7161,7 @@
       <c r="C160" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D160" s="22" t="s">
+      <c r="D160" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E160" s="5" t="s">
@@ -7173,7 +7190,7 @@
       <c r="C161" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D161" s="22" t="s">
+      <c r="D161" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E161" s="5" t="s">
@@ -7202,7 +7219,7 @@
       <c r="C162" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D162" s="22" t="s">
+      <c r="D162" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E162" s="5" t="s">
@@ -7231,7 +7248,7 @@
       <c r="C163" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D163" s="22" t="s">
+      <c r="D163" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E163" s="5" t="s">
@@ -7260,7 +7277,7 @@
       <c r="C164" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D164" s="22" t="s">
+      <c r="D164" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E164" s="5" t="s">
@@ -7289,7 +7306,7 @@
       <c r="C165" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D165" s="22" t="s">
+      <c r="D165" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E165" s="5" t="s">
@@ -7318,7 +7335,7 @@
       <c r="C166" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D166" s="22" t="s">
+      <c r="D166" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E166" s="5" t="s">
@@ -7347,7 +7364,7 @@
       <c r="C167" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D167" s="22" t="s">
+      <c r="D167" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E167" s="5" t="s">
@@ -7376,7 +7393,7 @@
       <c r="C168" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D168" s="22" t="s">
+      <c r="D168" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E168" s="5" t="s">
@@ -7405,7 +7422,7 @@
       <c r="C169" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D169" s="22" t="s">
+      <c r="D169" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E169" s="5" t="s">
@@ -7434,7 +7451,7 @@
       <c r="C170" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="D170" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E170" s="5" t="s">
@@ -7463,7 +7480,7 @@
       <c r="C171" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="D171" s="22" t="s">
+      <c r="D171" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E171" s="5" t="s">
@@ -7492,7 +7509,7 @@
       <c r="C172" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D172" s="22" t="s">
+      <c r="D172" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E172" s="5" t="s">
@@ -7521,7 +7538,7 @@
       <c r="C173" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D173" s="22" t="s">
+      <c r="D173" s="19" t="s">
         <v>299</v>
       </c>
       <c r="E173" s="5" t="s">
@@ -7550,7 +7567,7 @@
       <c r="C174" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D174" s="22" t="s">
+      <c r="D174" s="19" t="s">
         <v>448</v>
       </c>
       <c r="E174" s="5" t="s">
@@ -7579,7 +7596,7 @@
       <c r="C175" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D175" s="22" t="s">
+      <c r="D175" s="19" t="s">
         <v>448</v>
       </c>
       <c r="E175" s="5" t="s">
@@ -7608,7 +7625,7 @@
       <c r="C176" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D176" s="22" t="s">
+      <c r="D176" s="19" t="s">
         <v>448</v>
       </c>
       <c r="E176" s="5" t="s">
@@ -7637,7 +7654,7 @@
       <c r="C177" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D177" s="22" t="s">
+      <c r="D177" s="19" t="s">
         <v>448</v>
       </c>
       <c r="E177" s="5" t="s">
@@ -7666,7 +7683,7 @@
       <c r="C178" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D178" s="22" t="s">
+      <c r="D178" s="19" t="s">
         <v>448</v>
       </c>
       <c r="E178" s="5" t="s">
@@ -7695,7 +7712,7 @@
       <c r="C179" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="D179" s="22" t="s">
+      <c r="D179" s="19" t="s">
         <v>448</v>
       </c>
       <c r="E179" s="5" t="s">
@@ -7724,7 +7741,7 @@
       <c r="C180" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="D180" s="22" t="s">
+      <c r="D180" s="19" t="s">
         <v>448</v>
       </c>
       <c r="E180" s="5" t="s">
@@ -7753,7 +7770,7 @@
       <c r="C181" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D181" s="22" t="s">
+      <c r="D181" s="19" t="s">
         <v>448</v>
       </c>
       <c r="E181" s="5" t="s">
@@ -7782,7 +7799,7 @@
       <c r="C182" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="D182" s="22" t="s">
+      <c r="D182" s="19" t="s">
         <v>448</v>
       </c>
       <c r="E182" s="5" t="s">
@@ -7797,7 +7814,7 @@
       <c r="K182" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="L182" s="24" t="s">
+      <c r="L182" s="21" t="s">
         <v>470</v>
       </c>
     </row>
@@ -7811,7 +7828,7 @@
       <c r="C183" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D183" s="22" t="s">
+      <c r="D183" s="19" t="s">
         <v>448</v>
       </c>
       <c r="E183" s="5" t="s">
@@ -7826,7 +7843,7 @@
       <c r="K183" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="L183" s="23" t="s">
+      <c r="L183" s="20" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7840,7 +7857,7 @@
       <c r="C184" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="D184" s="22" t="s">
+      <c r="D184" s="19" t="s">
         <v>448</v>
       </c>
       <c r="E184" s="5" t="s">
@@ -7855,7 +7872,7 @@
       <c r="K184" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="L184" s="23" t="s">
+      <c r="L184" s="20" t="s">
         <v>469</v>
       </c>
     </row>
@@ -7869,7 +7886,7 @@
       <c r="C185" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="D185" s="21" t="s">
+      <c r="D185" s="18" t="s">
         <v>476</v>
       </c>
       <c r="E185" s="5" t="s">
@@ -7898,7 +7915,7 @@
       <c r="C186" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D186" s="21" t="s">
+      <c r="D186" s="18" t="s">
         <v>476</v>
       </c>
       <c r="E186" s="5" t="s">
@@ -7927,7 +7944,7 @@
       <c r="C187" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="D187" s="21" t="s">
+      <c r="D187" s="18" t="s">
         <v>476</v>
       </c>
       <c r="E187" s="5" t="s">
@@ -7948,6 +7965,134 @@
       </c>
       <c r="L187" s="7" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="30">
+      <c r="A188" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I188" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" s="5">
+        <v>3</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L188" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="30">
+      <c r="A189" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D189" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I189" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" s="5">
+        <v>3</v>
+      </c>
+      <c r="K189" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L189" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="30">
+      <c r="A190" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D190" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I190" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190" s="5">
+        <v>3</v>
+      </c>
+      <c r="K190" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L190" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I191" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J191" s="5">
+        <v>3</v>
+      </c>
+      <c r="K191" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L191" s="5" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v8.3.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6100C900-C1FF-4C02-B528-23042F262BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08F693B-E20F-4E35-AE64-350991537A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1110" windowWidth="26340" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23925" yWindow="1305" windowWidth="26340" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="526">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -547,9 +547,6 @@
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_1.3::2.1</t>
-  </si>
-  <si>
-    <t>TICC-117: deprecate per 2021-01-01</t>
   </si>
   <si>
     <t>XRechnung UBL Invoice V2.0</t>
@@ -1639,6 +1636,10 @@
   </si>
   <si>
     <t>Peppol Order Advanced</t>
+  </si>
+  <si>
+    <t>TICC-117
+TICC-237</t>
   </si>
 </sst>
 </file>
@@ -2217,8 +2218,8 @@
   <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2249,22 +2250,22 @@
         <v>127</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>429</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>430</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>114</v>
@@ -2290,7 +2291,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -2323,7 +2324,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F3" s="6">
         <v>2</v>
@@ -2356,7 +2357,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F4" s="6">
         <v>2</v>
@@ -2389,7 +2390,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F5" s="6">
         <v>2</v>
@@ -2422,7 +2423,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
@@ -2455,7 +2456,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -2488,7 +2489,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F8" s="6">
         <v>7</v>
@@ -2521,7 +2522,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
@@ -2542,7 +2543,7 @@
     </row>
     <row r="10" spans="1:12" ht="45">
       <c r="A10" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>56</v>
@@ -2554,13 +2555,13 @@
         <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F10" s="6">
         <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I10" s="5" t="b">
         <f>TRUE</f>
@@ -2590,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F11" s="6">
         <v>7</v>
@@ -2623,7 +2624,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F12" s="6">
         <v>2</v>
@@ -2656,7 +2657,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F13" s="6">
         <v>7</v>
@@ -2689,7 +2690,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
@@ -2722,7 +2723,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
@@ -2755,7 +2756,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F16" s="6">
         <v>2</v>
@@ -2788,7 +2789,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F17" s="6">
         <v>7</v>
@@ -2821,7 +2822,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F18" s="6">
         <v>7</v>
@@ -2854,7 +2855,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F19" s="6">
         <v>7</v>
@@ -2887,7 +2888,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F20" s="6">
         <v>7</v>
@@ -2920,7 +2921,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F21" s="6">
         <v>7</v>
@@ -2953,7 +2954,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F22" s="6">
         <v>7</v>
@@ -2986,7 +2987,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F23" s="6">
         <v>7</v>
@@ -3019,7 +3020,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F24" s="6">
         <v>7</v>
@@ -3052,7 +3053,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F25" s="6">
         <v>2</v>
@@ -3082,7 +3083,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I26" s="5" t="b">
         <f>FALSE</f>
@@ -3109,7 +3110,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F27" s="6">
         <v>7</v>
@@ -3130,7 +3131,7 @@
     </row>
     <row r="28" spans="1:12" ht="45">
       <c r="A28" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>56</v>
@@ -3142,13 +3143,13 @@
         <v>27</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I28" s="5" t="b">
         <f>TRUE</f>
@@ -3178,7 +3179,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F29" s="6">
         <v>7</v>
@@ -3211,7 +3212,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F30" s="6">
         <v>7</v>
@@ -3244,7 +3245,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F31" s="6">
         <v>7</v>
@@ -3265,7 +3266,7 @@
     </row>
     <row r="32" spans="1:12" ht="30">
       <c r="A32" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
@@ -3277,7 +3278,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I32" s="5" t="b">
         <f>TRUE</f>
@@ -3295,7 +3296,7 @@
     </row>
     <row r="33" spans="1:12" ht="30">
       <c r="A33" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -3307,7 +3308,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I33" s="5" t="b">
         <f>TRUE</f>
@@ -3337,7 +3338,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I34" s="5" t="b">
         <f>FALSE</f>
@@ -3352,7 +3353,7 @@
     </row>
     <row r="35" spans="1:12" ht="45">
       <c r="A35" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>56</v>
@@ -3364,13 +3365,13 @@
         <v>3</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I35" s="5" t="b">
         <f>FALSE</f>
@@ -3391,16 +3392,16 @@
         <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I36" s="5" t="b">
         <f>FALSE</f>
@@ -3415,7 +3416,7 @@
     </row>
     <row r="37" spans="1:12" ht="30">
       <c r="A37" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
@@ -3427,7 +3428,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I37" s="5" t="b">
         <f>TRUE</f>
@@ -3445,7 +3446,7 @@
     </row>
     <row r="38" spans="1:12" ht="45">
       <c r="A38" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>56</v>
@@ -3457,7 +3458,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I38" s="5" t="b">
         <f>TRUE</f>
@@ -3475,7 +3476,7 @@
     </row>
     <row r="39" spans="1:12" ht="45">
       <c r="A39" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>56</v>
@@ -3487,7 +3488,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I39" s="5" t="b">
         <f>TRUE</f>
@@ -3505,7 +3506,7 @@
     </row>
     <row r="40" spans="1:12" ht="45">
       <c r="A40" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>56</v>
@@ -3517,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I40" s="5" t="b">
         <f>TRUE</f>
@@ -3535,7 +3536,7 @@
     </row>
     <row r="41" spans="1:12" ht="45">
       <c r="A41" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>56</v>
@@ -3547,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I41" s="5" t="b">
         <f>TRUE</f>
@@ -3565,7 +3566,7 @@
     </row>
     <row r="42" spans="1:12" ht="45">
       <c r="A42" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>56</v>
@@ -3577,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I42" s="5" t="b">
         <f>TRUE</f>
@@ -3595,7 +3596,7 @@
     </row>
     <row r="43" spans="1:12" ht="45">
       <c r="A43" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>56</v>
@@ -3607,7 +3608,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I43" s="5" t="b">
         <f>TRUE</f>
@@ -3637,13 +3638,13 @@
         <v>3</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F44" s="6">
         <v>5</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I44" s="5" t="b">
         <f>FALSE</f>
@@ -3670,13 +3671,13 @@
         <v>3</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F45" s="6">
         <v>5</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I45" s="5" t="b">
         <f>FALSE</f>
@@ -3703,13 +3704,13 @@
         <v>3</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F46" s="6">
         <v>5</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I46" s="5" t="b">
         <f>FALSE</f>
@@ -3736,10 +3737,10 @@
         <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I47" s="5" t="b">
         <f>FALSE</f>
@@ -3766,10 +3767,10 @@
         <v>3</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I48" s="5" t="b">
         <f>FALSE</f>
@@ -3796,10 +3797,10 @@
         <v>3</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I49" s="5" t="b">
         <f>FALSE</f>
@@ -3826,10 +3827,10 @@
         <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I50" s="5" t="b">
         <f>FALSE</f>
@@ -3844,7 +3845,7 @@
     </row>
     <row r="51" spans="1:12" ht="30">
       <c r="A51" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>56</v>
@@ -3856,7 +3857,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F51" s="6">
         <v>7</v>
@@ -3877,7 +3878,7 @@
     </row>
     <row r="52" spans="1:12" ht="30">
       <c r="A52" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>56</v>
@@ -3889,7 +3890,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I52" s="5" t="b">
         <f>TRUE</f>
@@ -3907,7 +3908,7 @@
     </row>
     <row r="53" spans="1:12" ht="30">
       <c r="A53" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>56</v>
@@ -3919,7 +3920,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I53" s="5" t="b">
         <f>TRUE</f>
@@ -3937,7 +3938,7 @@
     </row>
     <row r="54" spans="1:12" ht="30">
       <c r="A54" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
@@ -3949,7 +3950,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I54" s="5" t="b">
         <f>TRUE</f>
@@ -3962,12 +3963,12 @@
         <v>117</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30">
       <c r="A55" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>56</v>
@@ -3979,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I55" s="5" t="b">
         <f>TRUE</f>
@@ -3997,7 +3998,7 @@
     </row>
     <row r="56" spans="1:12" ht="30">
       <c r="A56" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>56</v>
@@ -4009,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I56" s="5" t="b">
         <f>TRUE</f>
@@ -4027,7 +4028,7 @@
     </row>
     <row r="57" spans="1:12" ht="30">
       <c r="A57" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>56</v>
@@ -4039,7 +4040,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I57" s="5" t="b">
         <f>TRUE</f>
@@ -4057,7 +4058,7 @@
     </row>
     <row r="58" spans="1:12" ht="30">
       <c r="A58" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
@@ -4069,7 +4070,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I58" s="5" t="b">
         <f>TRUE</f>
@@ -4087,7 +4088,7 @@
     </row>
     <row r="59" spans="1:12" ht="30">
       <c r="A59" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>56</v>
@@ -4099,7 +4100,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I59" s="5" t="b">
         <f>TRUE</f>
@@ -4117,7 +4118,7 @@
     </row>
     <row r="60" spans="1:12" ht="30">
       <c r="A60" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>56</v>
@@ -4129,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I60" s="5" t="b">
         <f>TRUE</f>
@@ -4159,7 +4160,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I61" s="5" t="b">
         <f>FALSE</f>
@@ -4186,7 +4187,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I62" s="5" t="b">
         <f>FALSE</f>
@@ -4201,7 +4202,7 @@
     </row>
     <row r="63" spans="1:12" ht="30">
       <c r="A63" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>56</v>
@@ -4213,7 +4214,7 @@
         <v>4</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I63" s="5" t="b">
         <f>TRUE</f>
@@ -4231,7 +4232,7 @@
     </row>
     <row r="64" spans="1:12" ht="45">
       <c r="A64" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>56</v>
@@ -4243,13 +4244,13 @@
         <v>4</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F64" s="6">
         <v>6</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I64" s="5" t="b">
         <f>TRUE</f>
@@ -4267,7 +4268,7 @@
     </row>
     <row r="65" spans="1:12" ht="45">
       <c r="A65" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>56</v>
@@ -4279,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I65" s="5" t="b">
         <f>TRUE</f>
@@ -4298,7 +4299,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="45">
+    <row r="66" spans="1:12" ht="30">
       <c r="A66" s="5" t="s">
         <v>85</v>
       </c>
@@ -4312,10 +4313,13 @@
         <v>5</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>520</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>171</v>
+        <v>525</v>
       </c>
       <c r="I66" s="5" t="b">
         <f>FALSE</f>
@@ -4328,7 +4332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="45">
+    <row r="67" spans="1:12" ht="30">
       <c r="A67" s="5" t="s">
         <v>86</v>
       </c>
@@ -4342,10 +4346,13 @@
         <v>5</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>520</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>171</v>
+        <v>525</v>
       </c>
       <c r="I67" s="5" t="b">
         <f>FALSE</f>
@@ -4358,7 +4365,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="45">
+    <row r="68" spans="1:12" ht="30">
       <c r="A68" s="5" t="s">
         <v>87</v>
       </c>
@@ -4372,10 +4379,13 @@
         <v>5</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>520</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>171</v>
+        <v>525</v>
       </c>
       <c r="I68" s="5" t="b">
         <f>FALSE</f>
@@ -4402,10 +4412,10 @@
         <v>6</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I69" s="5" t="b">
         <f>FALSE</f>
@@ -4432,10 +4442,10 @@
         <v>6</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I70" s="5" t="b">
         <f>FALSE</f>
@@ -4462,10 +4472,10 @@
         <v>6</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I71" s="5" t="b">
         <f>FALSE</f>
@@ -4480,7 +4490,7 @@
     </row>
     <row r="72" spans="1:12" ht="45">
       <c r="A72" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>56</v>
@@ -4492,10 +4502,10 @@
         <v>6</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I72" s="5" t="b">
         <f>TRUE</f>
@@ -4513,7 +4523,7 @@
     </row>
     <row r="73" spans="1:12" ht="45">
       <c r="A73" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
@@ -4525,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I73" s="5" t="b">
         <f>TRUE</f>
@@ -4558,10 +4568,10 @@
         <v>6</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I74" s="5" t="b">
         <f>FALSE</f>
@@ -4571,7 +4581,7 @@
         <v>117</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="45">
@@ -4588,10 +4598,10 @@
         <v>6</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I75" s="5" t="b">
         <f>FALSE</f>
@@ -4601,7 +4611,7 @@
         <v>117</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="45">
@@ -4618,10 +4628,10 @@
         <v>6</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I76" s="5" t="b">
         <f>FALSE</f>
@@ -4648,10 +4658,10 @@
         <v>6</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I77" s="5" t="b">
         <f>FALSE</f>
@@ -4678,14 +4688,14 @@
         <v>7</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I78" s="5" t="b">
         <f>FALSE</f>
@@ -4712,14 +4722,14 @@
         <v>7</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G79" s="16"/>
       <c r="H79" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I79" s="5" t="b">
         <f>FALSE</f>
@@ -4740,20 +4750,20 @@
         <v>56</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D80" s="18">
         <v>7</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G80" s="16"/>
       <c r="H80" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I80" s="5" t="b">
         <f>FALSE</f>
@@ -4768,22 +4778,22 @@
     </row>
     <row r="81" spans="1:12" ht="30">
       <c r="A81" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D81" s="18">
         <v>7</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I81" s="5" t="b">
         <f>FALSE</f>
@@ -4798,22 +4808,22 @@
     </row>
     <row r="82" spans="1:12" ht="30">
       <c r="A82" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D82" s="18">
         <v>7</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I82" s="5" t="b">
         <f>FALSE</f>
@@ -4828,26 +4838,26 @@
     </row>
     <row r="83" spans="1:12" ht="30">
       <c r="A83" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D83" s="18">
         <v>7</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G83" s="16"/>
       <c r="H83" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I83" s="5" t="b">
         <f>FALSE</f>
@@ -4862,22 +4872,22 @@
     </row>
     <row r="84" spans="1:12" ht="30">
       <c r="A84" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="E84" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H84" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="I84" s="5" t="b">
         <f>FALSE</f>
@@ -4892,26 +4902,26 @@
     </row>
     <row r="85" spans="1:12" ht="30">
       <c r="A85" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D85" s="18">
         <v>7</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G85" s="16"/>
       <c r="H85" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I85" s="5" t="b">
         <f>FALSE</f>
@@ -4926,26 +4936,26 @@
     </row>
     <row r="86" spans="1:12" ht="45">
       <c r="A86" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D86" s="18">
         <v>7</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G86" s="16"/>
       <c r="H86" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I86" s="5" t="b">
         <f>FALSE</f>
@@ -4960,26 +4970,26 @@
     </row>
     <row r="87" spans="1:12" ht="45">
       <c r="A87" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D87" s="18">
         <v>7</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I87" s="5" t="b">
         <f>FALSE</f>
@@ -4994,22 +5004,22 @@
     </row>
     <row r="88" spans="1:12" ht="45">
       <c r="A88" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D88" s="18">
         <v>7</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I88" s="5" t="b">
         <f>FALSE</f>
@@ -5024,26 +5034,26 @@
     </row>
     <row r="89" spans="1:12" ht="30">
       <c r="A89" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D89" s="18">
         <v>7</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G89" s="16"/>
       <c r="H89" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I89" s="5" t="b">
         <f>FALSE</f>
@@ -5053,31 +5063,31 @@
         <v>117</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="30">
       <c r="A90" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D90" s="18">
         <v>7</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G90" s="16"/>
       <c r="H90" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I90" s="5" t="b">
         <f>FALSE</f>
@@ -5087,31 +5097,31 @@
         <v>117</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="30">
       <c r="A91" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D91" s="18">
         <v>7</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G91" s="16"/>
       <c r="H91" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I91" s="5" t="b">
         <f>FALSE</f>
@@ -5121,31 +5131,31 @@
         <v>117</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="45">
       <c r="A92" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D92" s="18">
         <v>7</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G92" s="16"/>
       <c r="H92" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I92" s="5" t="b">
         <f>FALSE</f>
@@ -5155,27 +5165,27 @@
         <v>117</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D93" s="18">
         <v>7</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="5" t="b">
         <f>FALSE</f>
@@ -5185,27 +5195,27 @@
         <v>117</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D94" s="18">
         <v>7</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="5" t="b">
         <f>FALSE</f>
@@ -5215,27 +5225,27 @@
         <v>117</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="30">
       <c r="A95" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D95" s="18">
         <v>7</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I95" s="5" t="b">
         <f>FALSE</f>
@@ -5245,27 +5255,27 @@
         <v>117</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="30">
       <c r="A96" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C96" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D96" s="19" t="s">
-        <v>207</v>
-      </c>
       <c r="E96" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I96" s="5" t="b">
         <f>FALSE</f>
@@ -5280,22 +5290,22 @@
     </row>
     <row r="97" spans="1:12" ht="45">
       <c r="A97" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I97" s="5" t="b">
         <f>FALSE</f>
@@ -5310,26 +5320,26 @@
     </row>
     <row r="98" spans="1:12" ht="45">
       <c r="A98" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G98" s="16"/>
       <c r="H98" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I98" s="5" t="b">
         <f>FALSE</f>
@@ -5344,22 +5354,22 @@
     </row>
     <row r="99" spans="1:12" ht="45">
       <c r="A99" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D99" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H99" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="I99" s="5" t="b">
         <f>FALSE</f>
@@ -5374,22 +5384,22 @@
     </row>
     <row r="100" spans="1:12" ht="30">
       <c r="A100" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I100" s="5" t="b">
         <f>FALSE</f>
@@ -5399,27 +5409,27 @@
         <v>117</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="45">
       <c r="A101" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I101" s="5" t="b">
         <f>FALSE</f>
@@ -5434,22 +5444,22 @@
     </row>
     <row r="102" spans="1:12" ht="45">
       <c r="A102" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" s="10" t="s">
+      <c r="D102" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H102" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="I102" s="5" t="b">
         <f>FALSE</f>
@@ -5459,54 +5469,54 @@
         <v>117</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C103" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H103" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="I103" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="30">
       <c r="A104" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I104" s="5" t="b">
         <f>FALSE</f>
@@ -5516,27 +5526,27 @@
         <v>117</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="30">
       <c r="A105" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I105" s="5" t="b">
         <f>FALSE</f>
@@ -5546,27 +5556,27 @@
         <v>117</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="30">
       <c r="A106" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I106" s="5" t="b">
         <f>FALSE</f>
@@ -5576,27 +5586,27 @@
         <v>117</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="45">
       <c r="A107" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C107" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H107" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="I107" s="5" t="b">
         <f>FALSE</f>
@@ -5606,687 +5616,687 @@
         <v>117</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="30">
       <c r="A108" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B108" t="s">
         <v>56</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D108" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H108" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I108" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="60">
       <c r="A109" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B109" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D109" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H109" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I109" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="60">
       <c r="A110" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B110" t="s">
         <v>56</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D110" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H110" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I110" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="45">
       <c r="A111" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B111" t="s">
         <v>56</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D111" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H111" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I111" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="45">
       <c r="A112" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B112" t="s">
         <v>56</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D112" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I112" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="45">
       <c r="A113" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B113" t="s">
         <v>56</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D113" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H113" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I113" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="45">
       <c r="A114" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B114" t="s">
         <v>56</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D114" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H114" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I114" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="60">
       <c r="A115" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B115" t="s">
         <v>56</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D115" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H115" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I115" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="45">
       <c r="A116" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B116" t="s">
         <v>56</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D116" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H116" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I116" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="30">
       <c r="A117" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B117" t="s">
         <v>56</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D117" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H117" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I117" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="45">
       <c r="A118" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B118" t="s">
         <v>56</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D118" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H118" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I118" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="45">
       <c r="A119" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B119" t="s">
         <v>56</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D119" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H119" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I119" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="45">
       <c r="A120" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B120" t="s">
         <v>56</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D120" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I120" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="45">
       <c r="A121" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B121" t="s">
         <v>56</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D121" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H121" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I121" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="30">
       <c r="A122" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B122" t="s">
         <v>56</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D122" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H122" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I122" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="45">
       <c r="A123" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B123" t="s">
         <v>56</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D123" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H123" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I123" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B124" t="s">
         <v>56</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D124" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H124" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I124" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="45">
       <c r="A125" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B125" t="s">
         <v>56</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D125" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H125" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I125" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="45">
       <c r="A126" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B126" t="s">
         <v>56</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D126" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H126" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I126" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K126" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B127" t="s">
         <v>56</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D127" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H127" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I127" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="45">
       <c r="A128" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B128" t="s">
         <v>56</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D128" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H128" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I128" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="45">
       <c r="A129" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B129" t="s">
         <v>56</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D129" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="D129" s="19" t="s">
+      <c r="E129" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H129" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I129" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I130" s="5" t="b">
         <v>1</v>
@@ -6298,27 +6308,27 @@
         <v>116</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="30">
       <c r="A131" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I131" s="5" t="b">
         <v>1</v>
@@ -6330,27 +6340,27 @@
         <v>116</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I132" s="5" t="b">
         <v>1</v>
@@ -6362,27 +6372,27 @@
         <v>116</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="30">
       <c r="A133" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C133" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H133" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="I133" s="5" t="b">
         <v>1</v>
@@ -6394,27 +6404,27 @@
         <v>116</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="45">
       <c r="A134" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I134" s="5" t="b">
         <v>0</v>
@@ -6428,22 +6438,22 @@
     </row>
     <row r="135" spans="1:12" ht="45">
       <c r="A135" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I135" s="5" t="b">
         <v>0</v>
@@ -6457,22 +6467,22 @@
     </row>
     <row r="136" spans="1:12" ht="45">
       <c r="A136" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I136" s="5" t="b">
         <v>0</v>
@@ -6486,22 +6496,22 @@
     </row>
     <row r="137" spans="1:12" ht="45">
       <c r="A137" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I137" s="5" t="b">
         <v>0</v>
@@ -6515,22 +6525,22 @@
     </row>
     <row r="138" spans="1:12" ht="45">
       <c r="A138" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I138" s="5" t="b">
         <v>0</v>
@@ -6544,51 +6554,51 @@
     </row>
     <row r="139" spans="1:12" ht="45">
       <c r="A139" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H139" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="I139" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L139" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="I139" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K139" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L139" s="5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="30">
       <c r="A140" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I140" s="5" t="b">
         <v>0</v>
@@ -6597,27 +6607,27 @@
         <v>117</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="45">
       <c r="A141" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I141" s="5" t="b">
         <v>0</v>
@@ -6626,27 +6636,27 @@
         <v>117</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="45">
       <c r="A142" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I142" s="5" t="b">
         <v>0</v>
@@ -6655,27 +6665,27 @@
         <v>117</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="45">
       <c r="A143" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I143" s="5" t="b">
         <v>0</v>
@@ -6684,27 +6694,27 @@
         <v>117</v>
       </c>
       <c r="L143" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="45">
       <c r="A144" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I144" s="5" t="b">
         <v>0</v>
@@ -6713,27 +6723,27 @@
         <v>117</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="30">
       <c r="A145" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I145" s="5" t="b">
         <v>0</v>
@@ -6742,27 +6752,27 @@
         <v>117</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="45">
       <c r="A146" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I146" s="5" t="b">
         <v>0</v>
@@ -6771,28 +6781,28 @@
         <v>117</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="45">
       <c r="A147" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C147" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H147" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D147" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="I147" s="5" t="b">
         <v>0</v>
       </c>
@@ -6800,27 +6810,27 @@
         <v>117</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="30">
       <c r="A148" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I148" s="5" t="b">
         <v>0</v>
@@ -6834,22 +6844,22 @@
     </row>
     <row r="149" spans="1:12" ht="30">
       <c r="A149" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I149" s="5" t="b">
         <v>0</v>
@@ -6863,22 +6873,22 @@
     </row>
     <row r="150" spans="1:12" ht="30">
       <c r="A150" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C150" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H150" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="D150" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="I150" s="5" t="b">
         <v>0</v>
@@ -6892,22 +6902,22 @@
     </row>
     <row r="151" spans="1:12" ht="30">
       <c r="A151" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I151" s="5" t="b">
         <v>0</v>
@@ -6921,22 +6931,22 @@
     </row>
     <row r="152" spans="1:12" ht="45">
       <c r="A152" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I152" s="5" t="b">
         <v>0</v>
@@ -6950,22 +6960,22 @@
     </row>
     <row r="153" spans="1:12" ht="45">
       <c r="A153" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C153" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H153" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="D153" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="I153" s="5" t="b">
         <v>0</v>
@@ -6979,23 +6989,23 @@
     </row>
     <row r="154" spans="1:12" ht="45">
       <c r="A154" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C154" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H154" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D154" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H154" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="I154" s="5" t="b">
         <v>0</v>
       </c>
@@ -7003,56 +7013,56 @@
         <v>117</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="45">
       <c r="A155" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H155" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="I155" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L155" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="I155" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K155" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L155" s="5" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="45">
       <c r="A156" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I156" s="5" t="b">
         <v>0</v>
@@ -7061,27 +7071,27 @@
         <v>117</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="30">
       <c r="A157" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I157" s="5" t="b">
         <v>0</v>
@@ -7090,27 +7100,27 @@
         <v>116</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="30">
       <c r="A158" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I158" s="5" t="b">
         <v>0</v>
@@ -7119,27 +7129,27 @@
         <v>116</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="30">
       <c r="A159" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I159" s="5" t="b">
         <v>0</v>
@@ -7148,27 +7158,27 @@
         <v>116</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="30">
       <c r="A160" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I160" s="5" t="b">
         <v>0</v>
@@ -7177,27 +7187,27 @@
         <v>116</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I161" s="5" t="b">
         <v>0</v>
@@ -7206,27 +7216,27 @@
         <v>116</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="30">
       <c r="A162" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I162" s="5" t="b">
         <v>0</v>
@@ -7235,27 +7245,27 @@
         <v>116</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="30">
       <c r="A163" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D163" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I163" s="5" t="b">
         <v>0</v>
@@ -7264,27 +7274,27 @@
         <v>116</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="30">
       <c r="A164" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D164" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I164" s="5" t="b">
         <v>0</v>
@@ -7293,27 +7303,27 @@
         <v>116</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="30">
       <c r="A165" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I165" s="5" t="b">
         <v>0</v>
@@ -7322,27 +7332,27 @@
         <v>116</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="30">
       <c r="A166" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I166" s="5" t="b">
         <v>0</v>
@@ -7351,27 +7361,27 @@
         <v>116</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I167" s="5" t="b">
         <v>0</v>
@@ -7380,27 +7390,27 @@
         <v>116</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I168" s="5" t="b">
         <v>0</v>
@@ -7409,27 +7419,27 @@
         <v>116</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="30">
       <c r="A169" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I169" s="5" t="b">
         <v>0</v>
@@ -7438,27 +7448,27 @@
         <v>116</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="30">
       <c r="A170" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I170" s="5" t="b">
         <v>0</v>
@@ -7467,27 +7477,27 @@
         <v>116</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I171" s="5" t="b">
         <v>0</v>
@@ -7496,27 +7506,27 @@
         <v>116</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="30">
       <c r="A172" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I172" s="5" t="b">
         <v>0</v>
@@ -7525,27 +7535,27 @@
         <v>116</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="30">
       <c r="A173" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C173" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D173" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H173" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="D173" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H173" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="I173" s="5" t="b">
         <v>0</v>
@@ -7554,27 +7564,27 @@
         <v>116</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="30">
       <c r="A174" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I174" s="5" t="b">
         <v>0</v>
@@ -7588,22 +7598,22 @@
     </row>
     <row r="175" spans="1:12" ht="30">
       <c r="A175" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I175" s="5" t="b">
         <v>0</v>
@@ -7617,22 +7627,22 @@
     </row>
     <row r="176" spans="1:12" ht="30">
       <c r="A176" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I176" s="5" t="b">
         <v>0</v>
@@ -7646,22 +7656,22 @@
     </row>
     <row r="177" spans="1:12" ht="30">
       <c r="A177" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I177" s="5" t="b">
         <v>0</v>
@@ -7675,22 +7685,22 @@
     </row>
     <row r="178" spans="1:12" ht="45">
       <c r="A178" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I178" s="5" t="b">
         <v>0</v>
@@ -7704,22 +7714,22 @@
     </row>
     <row r="179" spans="1:12" ht="45">
       <c r="A179" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D179" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="D179" s="19" t="s">
-        <v>448</v>
-      </c>
       <c r="E179" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I179" s="5" t="b">
         <v>0</v>
@@ -7733,196 +7743,196 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C180" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D180" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="I180" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="L180" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="D180" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H180" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="I180" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K180" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="L180" s="5" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="30">
       <c r="A181" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I181" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K181" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L181" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="30">
       <c r="A182" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I182" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K182" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L182" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="30">
       <c r="A183" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I183" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K183" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="L183" s="20" t="s">
         <v>467</v>
-      </c>
-      <c r="L183" s="20" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="30">
       <c r="A184" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C184" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D184" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H184" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="D184" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H184" s="5" t="s">
-        <v>465</v>
-      </c>
       <c r="I184" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K184" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L184" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="30">
       <c r="A185" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C185" s="5" t="s">
+      <c r="D185" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="D185" s="18" t="s">
+      <c r="E185" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I185" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L185" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H185" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="I185" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K185" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L185" s="5" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="45">
       <c r="A186" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D186" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H186" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D186" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H186" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="I186" s="5" t="b">
         <v>0</v>
@@ -7936,22 +7946,22 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" t="s">
+        <v>511</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D187" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H187" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="D187" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H187" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="I187" s="5" t="b">
         <f>TRUE</f>
@@ -7969,22 +7979,22 @@
     </row>
     <row r="188" spans="1:12" ht="30">
       <c r="A188" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C188" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H188" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="D188" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H188" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="I188" s="5" t="b">
         <v>1</v>
@@ -7996,27 +8006,27 @@
         <v>117</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="30">
       <c r="A189" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I189" s="5" t="b">
         <v>1</v>
@@ -8028,27 +8038,27 @@
         <v>117</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="30">
       <c r="A190" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I190" s="5" t="b">
         <v>1</v>
@@ -8060,27 +8070,27 @@
         <v>117</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C191" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D191" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="D191" s="18" t="s">
-        <v>521</v>
-      </c>
       <c r="E191" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I191" s="5" t="b">
         <v>1</v>
@@ -8092,7 +8102,7 @@
         <v>117</v>
       </c>
       <c r="L191" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
